--- a/variable_step_size/steepest_descent_function_4_variable.xlsx
+++ b/variable_step_size/steepest_descent_function_4_variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\Steepest Descent\variable_step_size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7576B0-B0DF-41DC-A638-DB8E70C48F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E88ED4-C1D6-4307-96A1-1DF509505CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,14 +1028,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/variable_step_size/steepest_descent_function_4_variable.xlsx
+++ b/variable_step_size/steepest_descent_function_4_variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\Steepest Descent\variable_step_size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E88ED4-C1D6-4307-96A1-1DF509505CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC2099-6012-4C9E-8243-5595A6942742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,12 +167,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-GT" b="0" i="1">
+              <a:rPr lang="es-GT" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>∇ f vs k</a:t>
+              <a:t>||∇ f || vs k</a:t>
             </a:r>
-            <a:endParaRPr lang="es-GT" b="0">
+            <a:endParaRPr lang="es-GT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
